--- a/Dr.Boyd/CalciumGood.xlsx
+++ b/Dr.Boyd/CalciumGood.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d474aaa2186e9c7/CSU Classes/Consulting/Dr.Boyd/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F4C8E28E-476E-489D-98EF-48C2AF79BAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{F4C8E28E-476E-489D-98EF-48C2AF79BAF4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{C10EFCD2-322D-4BFE-A1FB-0217FF925FEF}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{662F3E34-E083-4557-9DF9-D261ABD503DF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{662F3E34-E083-4557-9DF9-D261ABD503DF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="2" r:id="rId3"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>OBSNO</t>
   </si>
@@ -58,6 +62,12 @@
   </si>
   <si>
     <t>AGEGROUP</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
@@ -93,8 +103,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -110,6 +124,1881 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="MattQ" refreshedDate="44093.72282800926" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="178" xr:uid="{5ED6F1C5-EE87-469B-8BFA-CDF45767BDEB}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:H179" sheet="Data"/>
+  </cacheSource>
+  <cacheFields count="8">
+    <cacheField name="OBSNO" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="178"/>
+    </cacheField>
+    <cacheField name="AGE" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="65" maxValue="89"/>
+    </cacheField>
+    <cacheField name="SEX" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="2" count="2">
+        <n v="2"/>
+        <n v="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="ALKPHOS" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="42" maxValue="219"/>
+    </cacheField>
+    <cacheField name="LAB" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="6"/>
+    </cacheField>
+    <cacheField name="CAMMOL" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="1.9" maxValue="2.75"/>
+    </cacheField>
+    <cacheField name="PHOSMMOL" numFmtId="0">
+      <sharedItems containsMixedTypes="1" containsNumber="1" minValue="0.52" maxValue="1.61"/>
+    </cacheField>
+    <cacheField name="AGEGROUP" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="5"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="178">
+  <r>
+    <n v="1"/>
+    <n v="78"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="4"/>
+    <n v="2.5299999999999998"/>
+    <n v="1.07"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="117"/>
+    <n v="4"/>
+    <n v="2.5"/>
+    <n v="1.1599999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="132"/>
+    <n v="4"/>
+    <n v="2.4300000000000002"/>
+    <n v="1.1299999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="102"/>
+    <n v="4"/>
+    <n v="2.48"/>
+    <n v="0.81"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="114"/>
+    <n v="4"/>
+    <n v="2.33"/>
+    <n v="1.1299999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="88"/>
+    <n v="4"/>
+    <n v="2.13"/>
+    <n v="0.84"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <n v="65"/>
+    <x v="0"/>
+    <n v="213"/>
+    <n v="4"/>
+    <n v="2.5499999999999998"/>
+    <n v="1.26"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <n v="68"/>
+    <x v="0"/>
+    <n v="153"/>
+    <n v="4"/>
+    <n v="2.4500000000000002"/>
+    <n v="1.23"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <n v="89"/>
+    <x v="1"/>
+    <n v="86"/>
+    <n v="4"/>
+    <n v="2.25"/>
+    <n v="0.65"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <n v="84"/>
+    <x v="1"/>
+    <n v="108"/>
+    <n v="4"/>
+    <n v="2.4300000000000002"/>
+    <n v="0.84"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <n v="71"/>
+    <x v="1"/>
+    <n v="96"/>
+    <n v="4"/>
+    <n v="2.4"/>
+    <n v="1.1000000000000001"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <n v="80"/>
+    <x v="0"/>
+    <n v="58"/>
+    <n v="5"/>
+    <n v="2.25"/>
+    <n v="1.1000000000000001"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <n v="80"/>
+    <x v="0"/>
+    <n v="45"/>
+    <n v="5"/>
+    <n v="2.1800000000000002"/>
+    <n v="1.49"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <n v="76"/>
+    <x v="0"/>
+    <n v="73"/>
+    <n v="5"/>
+    <n v="2.5499999999999998"/>
+    <n v="1.23"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="91"/>
+    <n v="2"/>
+    <n v="2.38"/>
+    <n v="1.42"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="57"/>
+    <n v="5"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.1599999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="159"/>
+    <n v="4"/>
+    <n v="2.6"/>
+    <n v="1.32"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="52"/>
+    <n v="5"/>
+    <n v="2.2000000000000002"/>
+    <n v="1.07"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="67"/>
+    <n v="5"/>
+    <n v="2.38"/>
+    <n v="1.1299999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <n v="66"/>
+    <x v="0"/>
+    <n v="111"/>
+    <n v="5"/>
+    <n v="2.63"/>
+    <n v="1.1299999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <n v="76"/>
+    <x v="1"/>
+    <n v="84"/>
+    <n v="5"/>
+    <n v="2.2000000000000002"/>
+    <n v="0.9"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <n v="76"/>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="5"/>
+    <n v="2.1800000000000002"/>
+    <n v="0.84"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="82"/>
+    <n v="5"/>
+    <n v="2.15"/>
+    <n v="0.52"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <n v="69"/>
+    <x v="1"/>
+    <n v="84"/>
+    <n v="5"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.36"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <n v="76"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="3"/>
+    <n v="2.5299999999999998"/>
+    <n v="1.07"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="90"/>
+    <n v="3"/>
+    <n v="2"/>
+    <n v="0.97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="109"/>
+    <n v="3"/>
+    <n v="2.23"/>
+    <n v="0.94"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="65"/>
+    <n v="3"/>
+    <n v="2.4300000000000002"/>
+    <n v="1.42"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <n v="74"/>
+    <x v="0"/>
+    <n v="61"/>
+    <n v="3"/>
+    <n v="2.5"/>
+    <n v="0.87"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <n v="74"/>
+    <x v="0"/>
+    <n v="62"/>
+    <n v="3"/>
+    <n v="2.33"/>
+    <n v="0.94"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <n v="74"/>
+    <x v="0"/>
+    <n v="43"/>
+    <n v="3"/>
+    <n v="2.4"/>
+    <n v="1.1599999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="57"/>
+    <n v="3"/>
+    <n v="2.5"/>
+    <n v="1.23"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="33"/>
+    <n v="69"/>
+    <x v="0"/>
+    <n v="129"/>
+    <n v="3"/>
+    <n v="2.5"/>
+    <n v="1.07"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <n v="82"/>
+    <x v="1"/>
+    <n v="118"/>
+    <n v="3"/>
+    <n v="2.35"/>
+    <n v="0.9"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <n v="84"/>
+    <x v="1"/>
+    <n v="42"/>
+    <n v="3"/>
+    <n v="2.25"/>
+    <n v="0.94"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="36"/>
+    <n v="70"/>
+    <x v="1"/>
+    <n v="73"/>
+    <n v="3"/>
+    <n v="2.4500000000000002"/>
+    <n v="0.84"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="60"/>
+    <n v="3"/>
+    <n v="2.33"/>
+    <n v="0.87"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <n v="84"/>
+    <x v="0"/>
+    <n v="80"/>
+    <n v="2"/>
+    <n v="2.33"/>
+    <n v="0.94"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <n v="76"/>
+    <x v="0"/>
+    <n v="89"/>
+    <n v="2"/>
+    <n v="2.4300000000000002"/>
+    <n v="1.29"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <n v="76"/>
+    <x v="0"/>
+    <n v="95"/>
+    <n v="2"/>
+    <n v="2.38"/>
+    <n v="1.03"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <n v="75"/>
+    <x v="0"/>
+    <n v="87"/>
+    <n v="2"/>
+    <n v="2.4"/>
+    <n v="1.18"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <n v="75"/>
+    <x v="0"/>
+    <n v="88"/>
+    <n v="2"/>
+    <n v="2.2799999999999998"/>
+    <e v="#NULL!"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="2"/>
+    <n v="2.35"/>
+    <n v="1.32"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="2"/>
+    <n v="2.2799999999999998"/>
+    <n v="1.07"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="92"/>
+    <n v="2"/>
+    <n v="2.48"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="129"/>
+    <n v="2"/>
+    <n v="2.48"/>
+    <n v="1.42"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="97"/>
+    <n v="2"/>
+    <n v="2.35"/>
+    <n v="1.03"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <n v="74"/>
+    <x v="0"/>
+    <n v="110"/>
+    <n v="2"/>
+    <n v="2.63"/>
+    <n v="1.23"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="129"/>
+    <n v="2"/>
+    <n v="2.4500000000000002"/>
+    <n v="1.26"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="50"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="2"/>
+    <n v="2.75"/>
+    <n v="0.9"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="54"/>
+    <n v="2"/>
+    <n v="2.4"/>
+    <n v="1.19"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="55"/>
+    <n v="2"/>
+    <n v="2.48"/>
+    <n v="1.1299999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <n v="69"/>
+    <x v="0"/>
+    <n v="147"/>
+    <n v="2"/>
+    <n v="2.4500000000000002"/>
+    <n v="1.19"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="54"/>
+    <n v="65"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="2"/>
+    <n v="2.4500000000000002"/>
+    <n v="1.1299999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="55"/>
+    <n v="69"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="2"/>
+    <n v="2.33"/>
+    <n v="0.97"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="56"/>
+    <n v="68"/>
+    <x v="0"/>
+    <n v="60"/>
+    <n v="2"/>
+    <n v="2.4300000000000002"/>
+    <n v="1.1000000000000001"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="57"/>
+    <n v="69"/>
+    <x v="0"/>
+    <n v="137"/>
+    <n v="2"/>
+    <n v="2.6"/>
+    <n v="1.29"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="58"/>
+    <n v="67"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="2"/>
+    <n v="2.4500000000000002"/>
+    <n v="1.19"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="59"/>
+    <n v="88"/>
+    <x v="1"/>
+    <n v="78"/>
+    <n v="2"/>
+    <n v="2.35"/>
+    <n v="0.87"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="60"/>
+    <n v="77"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="2"/>
+    <n v="2.4"/>
+    <n v="1.26"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="61"/>
+    <n v="76"/>
+    <x v="1"/>
+    <n v="98"/>
+    <n v="2"/>
+    <n v="2.4"/>
+    <n v="1.39"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="62"/>
+    <n v="76"/>
+    <x v="1"/>
+    <n v="81"/>
+    <n v="2"/>
+    <n v="2.38"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="63"/>
+    <n v="76"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="2"/>
+    <n v="2.33"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="64"/>
+    <n v="77"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="2"/>
+    <n v="2.35"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="65"/>
+    <n v="78"/>
+    <x v="1"/>
+    <n v="83"/>
+    <n v="2"/>
+    <n v="2.58"/>
+    <n v="1.1000000000000001"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="66"/>
+    <n v="78"/>
+    <x v="1"/>
+    <n v="71"/>
+    <n v="2"/>
+    <n v="2.23"/>
+    <n v="0.87"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="67"/>
+    <n v="75"/>
+    <x v="1"/>
+    <n v="82"/>
+    <n v="2"/>
+    <n v="2.4300000000000002"/>
+    <n v="1.23"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="68"/>
+    <n v="75"/>
+    <x v="1"/>
+    <n v="71"/>
+    <n v="2"/>
+    <n v="2.4"/>
+    <n v="1.19"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="69"/>
+    <n v="70"/>
+    <x v="1"/>
+    <n v="58"/>
+    <n v="2"/>
+    <n v="2.48"/>
+    <n v="0.87"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="70"/>
+    <n v="74"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="2"/>
+    <n v="2.33"/>
+    <n v="1.23"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="71"/>
+    <n v="71"/>
+    <x v="1"/>
+    <n v="84"/>
+    <n v="2"/>
+    <n v="2.5"/>
+    <n v="0.97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="72"/>
+    <n v="70"/>
+    <x v="1"/>
+    <n v="62"/>
+    <n v="2"/>
+    <n v="2.35"/>
+    <n v="1.1299999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="73"/>
+    <n v="70"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="2"/>
+    <n v="2.5299999999999998"/>
+    <n v="1.42"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="74"/>
+    <n v="73"/>
+    <x v="1"/>
+    <n v="168"/>
+    <n v="2"/>
+    <n v="2.5499999999999998"/>
+    <n v="1.1299999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="75"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="2"/>
+    <n v="2.4500000000000002"/>
+    <n v="1.26"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="76"/>
+    <n v="69"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="2"/>
+    <n v="2.33"/>
+    <n v="1.1599999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="77"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="76"/>
+    <n v="2"/>
+    <n v="2.4300000000000002"/>
+    <n v="0.97"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="78"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="2"/>
+    <n v="2.38"/>
+    <n v="0.97"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="79"/>
+    <n v="82"/>
+    <x v="0"/>
+    <n v="115"/>
+    <n v="1"/>
+    <n v="2.33"/>
+    <n v="1.61"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="80"/>
+    <n v="79"/>
+    <x v="0"/>
+    <n v="193"/>
+    <n v="1"/>
+    <n v="2.2799999999999998"/>
+    <n v="1.23"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="81"/>
+    <n v="78"/>
+    <x v="0"/>
+    <n v="123"/>
+    <n v="1"/>
+    <n v="2.13"/>
+    <n v="1.19"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="82"/>
+    <n v="75"/>
+    <x v="0"/>
+    <n v="126"/>
+    <n v="1"/>
+    <n v="2.4"/>
+    <n v="1.26"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="83"/>
+    <n v="79"/>
+    <x v="0"/>
+    <n v="86"/>
+    <n v="1"/>
+    <n v="2.48"/>
+    <n v="0.97"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="84"/>
+    <n v="75"/>
+    <x v="0"/>
+    <n v="100"/>
+    <n v="1"/>
+    <n v="2.2000000000000002"/>
+    <n v="1.23"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="85"/>
+    <n v="78"/>
+    <x v="0"/>
+    <n v="115"/>
+    <n v="1"/>
+    <e v="#NULL!"/>
+    <n v="1.19"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="86"/>
+    <n v="75"/>
+    <x v="0"/>
+    <n v="98"/>
+    <n v="1"/>
+    <n v="2.5"/>
+    <n v="1.29"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="87"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="1"/>
+    <n v="2.2000000000000002"/>
+    <n v="0.94"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="88"/>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="116"/>
+    <n v="1"/>
+    <n v="2.5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="89"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="155"/>
+    <n v="1"/>
+    <n v="2.35"/>
+    <n v="0.94"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="90"/>
+    <n v="74"/>
+    <x v="0"/>
+    <n v="124"/>
+    <n v="1"/>
+    <n v="2.7"/>
+    <n v="1.19"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="91"/>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="116"/>
+    <n v="1"/>
+    <n v="2.5"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="92"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="85"/>
+    <n v="1"/>
+    <n v="2.2000000000000002"/>
+    <n v="0.94"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="93"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="73"/>
+    <n v="1"/>
+    <n v="2.4500000000000002"/>
+    <n v="1.58"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="94"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="219"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="1.1599999999999999"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="95"/>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="78"/>
+    <n v="1"/>
+    <n v="2.5"/>
+    <n v="1.26"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="96"/>
+    <n v="74"/>
+    <x v="0"/>
+    <n v="103"/>
+    <n v="1"/>
+    <n v="2.38"/>
+    <n v="1.26"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="97"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.32"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="98"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="1"/>
+    <n v="2.2000000000000002"/>
+    <n v="0.94"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="99"/>
+    <n v="69"/>
+    <x v="0"/>
+    <n v="81"/>
+    <n v="1"/>
+    <n v="2.65"/>
+    <n v="1.29"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="100"/>
+    <n v="69"/>
+    <x v="0"/>
+    <n v="171"/>
+    <n v="1"/>
+    <n v="2.33"/>
+    <n v="1.07"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="101"/>
+    <n v="66"/>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.1299999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="102"/>
+    <n v="65"/>
+    <x v="0"/>
+    <n v="107"/>
+    <n v="1"/>
+    <n v="2.5299999999999998"/>
+    <n v="1.07"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="103"/>
+    <n v="66"/>
+    <x v="0"/>
+    <n v="68"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.1299999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="104"/>
+    <n v="68"/>
+    <x v="0"/>
+    <n v="69"/>
+    <n v="1"/>
+    <n v="2.4"/>
+    <n v="0.97"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="105"/>
+    <e v="#NULL!"/>
+    <x v="0"/>
+    <n v="163"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="1.36"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="106"/>
+    <n v="65"/>
+    <x v="0"/>
+    <n v="123"/>
+    <n v="1"/>
+    <n v="2.2799999999999998"/>
+    <n v="1.1000000000000001"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="107"/>
+    <n v="68"/>
+    <x v="0"/>
+    <n v="111"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.19"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="108"/>
+    <n v="86"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="0.9"/>
+    <n v="5"/>
+  </r>
+  <r>
+    <n v="109"/>
+    <n v="80"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="1"/>
+    <n v="2.48"/>
+    <n v="0.77"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="110"/>
+    <n v="80"/>
+    <x v="1"/>
+    <n v="88"/>
+    <n v="1"/>
+    <n v="2.48"/>
+    <n v="1.23"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="111"/>
+    <n v="81"/>
+    <x v="1"/>
+    <n v="84"/>
+    <n v="1"/>
+    <n v="2.1800000000000002"/>
+    <n v="0.97"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="112"/>
+    <n v="78"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.1599999999999999"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="113"/>
+    <n v="77"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="1.07"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="114"/>
+    <n v="79"/>
+    <x v="1"/>
+    <n v="127"/>
+    <n v="1"/>
+    <n v="2.5499999999999998"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="115"/>
+    <n v="79"/>
+    <x v="1"/>
+    <n v="77"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="1.23"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="116"/>
+    <n v="75"/>
+    <x v="1"/>
+    <n v="106"/>
+    <n v="1"/>
+    <n v="2.2799999999999998"/>
+    <n v="1"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="117"/>
+    <n v="75"/>
+    <x v="1"/>
+    <n v="62"/>
+    <n v="1"/>
+    <n v="2.48"/>
+    <n v="1.1299999999999999"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="118"/>
+    <n v="78"/>
+    <x v="1"/>
+    <n v="106"/>
+    <n v="1"/>
+    <n v="2.1800000000000002"/>
+    <n v="1.1299999999999999"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="119"/>
+    <n v="75"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="1"/>
+    <n v="2.1"/>
+    <n v="1.1000000000000001"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="120"/>
+    <n v="79"/>
+    <x v="1"/>
+    <n v="83"/>
+    <n v="1"/>
+    <n v="2.15"/>
+    <n v="1.26"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="121"/>
+    <n v="79"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="1"/>
+    <n v="2.2799999999999998"/>
+    <n v="1.1299999999999999"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="122"/>
+    <n v="77"/>
+    <x v="1"/>
+    <n v="83"/>
+    <n v="1"/>
+    <n v="2.1800000000000002"/>
+    <n v="1.1599999999999999"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="123"/>
+    <n v="73"/>
+    <x v="1"/>
+    <n v="74"/>
+    <n v="1"/>
+    <n v="2.38"/>
+    <n v="0.84"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="124"/>
+    <n v="72"/>
+    <x v="1"/>
+    <n v="136"/>
+    <n v="1"/>
+    <n v="2.2000000000000002"/>
+    <n v="0.77"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="125"/>
+    <n v="74"/>
+    <x v="1"/>
+    <n v="150"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="0.94"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="126"/>
+    <n v="70"/>
+    <x v="1"/>
+    <n v="75"/>
+    <n v="1"/>
+    <n v="2.35"/>
+    <n v="0.84"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="127"/>
+    <n v="70"/>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="1"/>
+    <n v="2.4500000000000002"/>
+    <n v="0.84"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="128"/>
+    <n v="72"/>
+    <x v="1"/>
+    <n v="52"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+    <n v="0.87"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="129"/>
+    <n v="71"/>
+    <x v="1"/>
+    <n v="122"/>
+    <n v="1"/>
+    <n v="2.33"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="130"/>
+    <n v="70"/>
+    <x v="1"/>
+    <n v="85"/>
+    <n v="1"/>
+    <n v="2.33"/>
+    <n v="1.23"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="131"/>
+    <n v="72"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="1"/>
+    <n v="2.1"/>
+    <n v="1.29"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="132"/>
+    <n v="74"/>
+    <x v="1"/>
+    <n v="71"/>
+    <n v="1"/>
+    <n v="2.35"/>
+    <n v="0.84"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="133"/>
+    <n v="71"/>
+    <x v="1"/>
+    <n v="76"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="0.97"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="134"/>
+    <n v="71"/>
+    <x v="1"/>
+    <n v="87"/>
+    <n v="1"/>
+    <n v="2.15"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="135"/>
+    <n v="70"/>
+    <x v="1"/>
+    <n v="97"/>
+    <n v="1"/>
+    <n v="2.33"/>
+    <n v="1.07"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="136"/>
+    <n v="71"/>
+    <x v="1"/>
+    <n v="116"/>
+    <n v="1"/>
+    <n v="2.33"/>
+    <n v="0.87"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="137"/>
+    <n v="72"/>
+    <x v="1"/>
+    <n v="68"/>
+    <n v="1"/>
+    <n v="2.2799999999999998"/>
+    <n v="1"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="138"/>
+    <n v="74"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="1"/>
+    <n v="2.38"/>
+    <n v="1.03"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="139"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="77"/>
+    <n v="1"/>
+    <n v="2.1800000000000002"/>
+    <n v="1.1299999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="140"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="91"/>
+    <n v="1"/>
+    <n v="2.35"/>
+    <n v="0.97"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="141"/>
+    <n v="65"/>
+    <x v="1"/>
+    <n v="64"/>
+    <n v="1"/>
+    <n v="2.35"/>
+    <n v="0.77"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="142"/>
+    <n v="69"/>
+    <x v="1"/>
+    <n v="63"/>
+    <n v="1"/>
+    <n v="2.23"/>
+    <n v="1.23"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="143"/>
+    <n v="69"/>
+    <x v="1"/>
+    <n v="67"/>
+    <n v="1"/>
+    <n v="2.2000000000000002"/>
+    <n v="1.32"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="144"/>
+    <n v="66"/>
+    <x v="1"/>
+    <n v="100"/>
+    <n v="1"/>
+    <n v="2.33"/>
+    <n v="1.23"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="145"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="61"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="1.26"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="146"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="52"/>
+    <n v="1"/>
+    <n v="2.35"/>
+    <n v="1.26"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="147"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="140"/>
+    <n v="1"/>
+    <n v="2.5"/>
+    <n v="0.84"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="148"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="107"/>
+    <n v="1"/>
+    <n v="1.9"/>
+    <n v="1.32"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="149"/>
+    <n v="65"/>
+    <x v="1"/>
+    <n v="66"/>
+    <n v="1"/>
+    <n v="2.0499999999999998"/>
+    <n v="1.19"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="150"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="67"/>
+    <n v="1"/>
+    <n v="2.4"/>
+    <n v="1.19"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="151"/>
+    <n v="66"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+    <n v="0.97"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="152"/>
+    <n v="69"/>
+    <x v="1"/>
+    <n v="62"/>
+    <n v="1"/>
+    <n v="2.23"/>
+    <n v="1.03"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="153"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="50"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.1299999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="154"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="83"/>
+    <n v="1"/>
+    <n v="2.4300000000000002"/>
+    <n v="1.1599999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="155"/>
+    <n v="69"/>
+    <x v="1"/>
+    <n v="79"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="1.07"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="156"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="114"/>
+    <n v="1"/>
+    <n v="2.4"/>
+    <n v="1.42"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="157"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="57"/>
+    <n v="1"/>
+    <n v="2.25"/>
+    <n v="1.07"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="158"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="90"/>
+    <n v="1"/>
+    <n v="2.2799999999999998"/>
+    <n v="1.32"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="159"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="67"/>
+    <n v="1"/>
+    <n v="2.1800000000000002"/>
+    <n v="0.97"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="160"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="105"/>
+    <n v="1"/>
+    <n v="2.5"/>
+    <n v="1.36"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="161"/>
+    <n v="66"/>
+    <x v="1"/>
+    <n v="130"/>
+    <n v="1"/>
+    <n v="2.4"/>
+    <n v="1.29"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="162"/>
+    <n v="65"/>
+    <x v="1"/>
+    <n v="110"/>
+    <n v="1"/>
+    <n v="2.2799999999999998"/>
+    <n v="1.1599999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="163"/>
+    <n v="65"/>
+    <x v="1"/>
+    <n v="119"/>
+    <n v="1"/>
+    <n v="2.1"/>
+    <n v="1.1599999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="164"/>
+    <n v="69"/>
+    <x v="1"/>
+    <n v="76"/>
+    <n v="1"/>
+    <n v="2.2999999999999998"/>
+    <n v="1"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="165"/>
+    <n v="67"/>
+    <x v="1"/>
+    <n v="69"/>
+    <n v="1"/>
+    <n v="2.38"/>
+    <n v="0.84"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="166"/>
+    <n v="68"/>
+    <x v="1"/>
+    <n v="83"/>
+    <n v="1"/>
+    <n v="2.4300000000000002"/>
+    <n v="1.1599999999999999"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="167"/>
+    <n v="80"/>
+    <x v="0"/>
+    <n v="61"/>
+    <n v="6"/>
+    <n v="2.35"/>
+    <n v="1.1000000000000001"/>
+    <n v="4"/>
+  </r>
+  <r>
+    <n v="168"/>
+    <n v="76"/>
+    <x v="1"/>
+    <n v="73"/>
+    <n v="6"/>
+    <n v="2.23"/>
+    <n v="1.1599999999999999"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="169"/>
+    <n v="66"/>
+    <x v="0"/>
+    <n v="122"/>
+    <n v="6"/>
+    <n v="2.4"/>
+    <n v="1.19"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="170"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="89"/>
+    <e v="#NULL!"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.36"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="171"/>
+    <n v="73"/>
+    <x v="0"/>
+    <n v="109"/>
+    <n v="6"/>
+    <n v="2.48"/>
+    <n v="1.36"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="172"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="57"/>
+    <n v="6"/>
+    <n v="2.4"/>
+    <n v="1.19"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="173"/>
+    <n v="74"/>
+    <x v="0"/>
+    <n v="72"/>
+    <n v="3"/>
+    <n v="2.2000000000000002"/>
+    <n v="1.19"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="174"/>
+    <n v="72"/>
+    <x v="0"/>
+    <n v="138"/>
+    <n v="3"/>
+    <n v="2.4500000000000002"/>
+    <n v="1.07"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="175"/>
+    <n v="71"/>
+    <x v="0"/>
+    <n v="115"/>
+    <n v="3"/>
+    <n v="2.1800000000000002"/>
+    <n v="1.1000000000000001"/>
+    <n v="2"/>
+  </r>
+  <r>
+    <n v="176"/>
+    <n v="67"/>
+    <x v="0"/>
+    <n v="84"/>
+    <n v="6"/>
+    <n v="2.2999999999999998"/>
+    <n v="1.26"/>
+    <n v="1"/>
+  </r>
+  <r>
+    <n v="177"/>
+    <n v="77"/>
+    <x v="0"/>
+    <n v="83"/>
+    <n v="4"/>
+    <n v="2.65"/>
+    <n v="0.97"/>
+    <n v="3"/>
+  </r>
+  <r>
+    <n v="178"/>
+    <n v="70"/>
+    <x v="0"/>
+    <n v="124"/>
+    <n v="4"/>
+    <n v="2.5"/>
+    <n v="0.97"/>
+    <n v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{730A1E0C-B2C8-4C49-9B31-B47F56615B68}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:A6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="1"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,16 +2297,57 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5375A072-E73C-4F46-A3B8-F02405BC2425}">
+  <dimension ref="A3:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39C6E2DF-DBAF-462C-8F3C-2E726F9509A8}">
   <dimension ref="A1:H179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="H114" sqref="H114"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H114" sqref="A1:H179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -443,7 +2373,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -469,7 +2399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -495,7 +2425,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -521,7 +2451,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -547,7 +2477,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -573,7 +2503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -599,7 +2529,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -625,7 +2555,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -651,7 +2581,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -677,7 +2607,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -703,7 +2633,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -729,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -755,7 +2685,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -781,7 +2711,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -807,7 +2737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -833,7 +2763,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
@@ -859,7 +2789,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
@@ -885,7 +2815,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
@@ -911,7 +2841,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
@@ -937,7 +2867,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
@@ -963,7 +2893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
@@ -989,7 +2919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
@@ -1015,7 +2945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
@@ -1041,7 +2971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
@@ -1067,7 +2997,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
@@ -1093,7 +3023,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
@@ -1119,7 +3049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
@@ -1145,7 +3075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
@@ -1171,7 +3101,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
@@ -1197,7 +3127,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
@@ -1223,7 +3153,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
@@ -1249,7 +3179,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
@@ -1275,7 +3205,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
@@ -1301,7 +3231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
@@ -1327,7 +3257,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
@@ -1353,7 +3283,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1379,7 +3309,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1405,7 +3335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1431,7 +3361,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1457,7 +3387,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
@@ -1483,7 +3413,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1509,7 +3439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1535,7 +3465,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1561,7 +3491,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
@@ -1587,7 +3517,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1613,7 +3543,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1639,7 +3569,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1665,7 +3595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -1691,7 +3621,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1717,7 +3647,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1743,7 +3673,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1769,7 +3699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1795,7 +3725,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
@@ -1821,7 +3751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1847,7 +3777,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1873,7 +3803,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
@@ -1899,7 +3829,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
@@ -1925,7 +3855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
@@ -1951,7 +3881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1977,7 +3907,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2003,7 +3933,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2029,7 +3959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2055,7 +3985,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2081,7 +4011,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2107,7 +4037,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2133,7 +4063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2159,7 +4089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2185,7 +4115,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2211,7 +4141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
@@ -2237,7 +4167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
@@ -2263,7 +4193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
@@ -2289,7 +4219,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
@@ -2315,7 +4245,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
@@ -2341,7 +4271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
@@ -2367,7 +4297,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
@@ -2393,7 +4323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
@@ -2419,7 +4349,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
@@ -2445,7 +4375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
@@ -2471,7 +4401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
@@ -2497,7 +4427,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
@@ -2523,7 +4453,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
@@ -2549,7 +4479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
@@ -2575,7 +4505,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
@@ -2601,7 +4531,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
@@ -2627,7 +4557,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
@@ -2653,7 +4583,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
@@ -2679,7 +4609,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
@@ -2705,7 +4635,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
@@ -2731,7 +4661,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
@@ -2757,7 +4687,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
@@ -2783,7 +4713,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
@@ -2809,7 +4739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
@@ -2835,7 +4765,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
@@ -2861,7 +4791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
@@ -2887,7 +4817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
@@ -2913,7 +4843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>96</v>
       </c>
@@ -2939,7 +4869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>97</v>
       </c>
@@ -2965,7 +4895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>98</v>
       </c>
@@ -2991,7 +4921,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3017,7 +4947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3043,7 +4973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3069,7 +4999,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3095,7 +5025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3121,7 +5051,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3147,7 +5077,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3173,7 +5103,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3199,7 +5129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3225,7 +5155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3251,7 +5181,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3277,7 +5207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3303,7 +5233,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3329,7 +5259,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3355,7 +5285,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3381,7 +5311,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3407,7 +5337,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3433,7 +5363,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3459,7 +5389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3485,7 +5415,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3511,7 +5441,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3537,7 +5467,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3563,7 +5493,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3589,7 +5519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3615,7 +5545,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3641,7 +5571,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3667,7 +5597,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3693,7 +5623,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3719,7 +5649,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3745,7 +5675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
@@ -3771,7 +5701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A130">
         <v>129</v>
       </c>
@@ -3797,7 +5727,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A131">
         <v>130</v>
       </c>
@@ -3823,7 +5753,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A132">
         <v>131</v>
       </c>
@@ -3849,7 +5779,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A133">
         <v>132</v>
       </c>
@@ -3875,7 +5805,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A134">
         <v>133</v>
       </c>
@@ -3901,7 +5831,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A135">
         <v>134</v>
       </c>
@@ -3927,7 +5857,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A136">
         <v>135</v>
       </c>
@@ -3953,7 +5883,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A137">
         <v>136</v>
       </c>
@@ -3979,7 +5909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4005,7 +5935,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4031,7 +5961,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4057,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4083,7 +6013,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4109,7 +6039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4135,7 +6065,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4161,7 +6091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4187,7 +6117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4213,7 +6143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4239,7 +6169,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4265,7 +6195,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4291,7 +6221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4317,7 +6247,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4343,7 +6273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4369,7 +6299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4395,7 +6325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4421,7 +6351,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4447,7 +6377,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4473,7 +6403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4499,7 +6429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4525,7 +6455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4551,7 +6481,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4577,7 +6507,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4603,7 +6533,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4629,7 +6559,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4655,7 +6585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4681,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4707,7 +6637,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4733,7 +6663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4759,7 +6689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4785,7 +6715,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4811,7 +6741,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4837,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4863,7 +6793,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4889,7 +6819,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4915,7 +6845,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4941,7 +6871,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4967,7 +6897,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4993,7 +6923,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177">
         <v>176</v>
       </c>
@@ -5019,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178">
         <v>177</v>
       </c>
@@ -5045,7 +6975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179">
         <v>178</v>
       </c>
